--- a/asset/Documents_ja/【参考】インストール時の各コンフィグ設定値.xlsx
+++ b/asset/Documents_ja/【参考】インストール時の各コンフィグ設定値.xlsx
@@ -1676,6 +1676,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1684,9 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2025,7 +2025,7 @@
       <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2040,7 +2040,7 @@
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -2055,7 +2055,7 @@
       <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2070,7 +2070,7 @@
       <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -2085,7 +2085,7 @@
       <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -2100,7 +2100,7 @@
       <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2117,7 +2117,7 @@
       <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2132,7 +2132,7 @@
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2149,7 +2149,7 @@
       <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2164,7 +2164,7 @@
       <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -2181,7 +2181,7 @@
       <c r="B15" s="9">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2432,7 +2432,7 @@
       <c r="B30" s="9">
         <v>26</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -2449,7 +2449,7 @@
       <c r="B31" s="9">
         <v>27</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -3385,7 +3385,7 @@
       <c r="E19" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       <c r="E20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9">
@@ -3538,7 +3538,7 @@
       <c r="E28" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9">
@@ -3553,7 +3553,7 @@
       <c r="E29" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="31" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
